--- a/_Lang_Korean/Lang/KR/Game/Religion.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">機械のマニ</t>
   </si>
   <si>
-    <t xml:space="preserve">He is a cold-hearted heretic who, while still retaining portion of humanity in his machine body, has taken the throne from the ancient Gods through trickery and intrigue. His power is still immeasurable. To him, the existence of God and providence are irrational, and his plan o destroy Gods and eventually achieve a society ruled entirely by machines.</t>
+    <t xml:space="preserve">He is a cold-hearted heretic, part human and part machine, who, through trickery and intrigue, seized the throne from the ancient God. His power is still beyond measure. To him, the existence of gods and their providence are illogical, and his immediate goal is the slaying of gods, ultimately aiming to establish a society entirely governed by machines.</t>
   </si>
   <si>
     <t xml:space="preserve">機械の体を具し、人間でありながら策略と陰謀により古の神から玉座を奪った冷徹な異端児。その力はまだ計り知れない。彼にとって神の存在と摂理は不合理であり、当面の目標として神殺しを、延いては機械による完全なる統治社会の実現をもくろんでいる。</t>
